--- a/docs/詳細設計書/テーブル定義書.xlsx
+++ b/docs/詳細設計書/テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\git\development-PGcourse-DroneInventorySystem\docs\詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/development-PGcourse-DroneInventorySystem/docs/詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5977BC8B-1C00-40C9-BA38-0FC8FC1F6D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEBAEA-FA4C-3A4A-AEF6-BDD970B5C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28260" yWindow="620" windowWidth="25900" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="18" r:id="rId1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -117,6 +118,12 @@
     <t>category_info</t>
   </si>
   <si>
+    <t>分類情報テーブル</t>
+  </si>
+  <si>
+    <t>在庫の分類情報を管理するテーブル</t>
+  </si>
+  <si>
     <t>center_info</t>
   </si>
   <si>
@@ -281,12 +288,18 @@
     <t>category_id</t>
   </si>
   <si>
+    <t>分類ID</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
     <t>category_name</t>
   </si>
   <si>
+    <t>在庫に紐づく分類に関する名称</t>
+  </si>
+  <si>
     <t>在庫センター情報テーブル</t>
   </si>
   <si>
@@ -420,6 +433,9 @@
   </si>
   <si>
     <t>在庫ID</t>
+  </si>
+  <si>
+    <t>在庫の分類情報（外部キー:分類情報テーブルの分類ID）</t>
   </si>
   <si>
     <t>name</t>
@@ -464,18 +480,6 @@
   </si>
   <si>
     <t>主キー。在庫に紐づくカテゴリーの一意なID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>在庫に紐づくカテゴリー名</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>カテゴリー情報を管理するテーブル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>在庫のカテゴリー情報（外部キー:カテゴリー情報テーブルのID）</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1015,22 +1019,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7"/>
-    <col min="2" max="2" width="5.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="66.109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="3.6640625" style="7"/>
+    <col min="1" max="1" width="3.7109375" style="7"/>
+    <col min="2" max="2" width="5.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="3.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="80" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1072,385 +1076,385 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="B6" s="10"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="B7" s="10"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="B9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="B11" s="10"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="B12" s="10"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="B14" s="10"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="B15" s="10"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="B16" s="10"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5">
       <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5">
       <c r="B18" s="10"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5">
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5">
       <c r="B20" s="10"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21" s="10"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22" s="10"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5">
       <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5">
       <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5">
       <c r="B26" s="10"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5">
       <c r="B27" s="10"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5">
       <c r="B28" s="10"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5">
       <c r="B29" s="10"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5">
       <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5">
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5">
       <c r="B32" s="10"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5">
       <c r="B33" s="10"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5">
       <c r="B34" s="10"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5">
       <c r="B35" s="10"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5">
       <c r="B36" s="10"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5">
       <c r="B37" s="10"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5">
       <c r="B38" s="10"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5">
       <c r="B39" s="10"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5">
       <c r="B40" s="10"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5">
       <c r="B41" s="10"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5">
       <c r="B42" s="10"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5">
       <c r="B43" s="10"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5">
       <c r="B44" s="10"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5">
       <c r="B45" s="10"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5">
       <c r="B46" s="10"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5">
       <c r="B47" s="10"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5">
       <c r="B48" s="10"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5">
       <c r="B49" s="10"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5">
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5">
       <c r="B51" s="10"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5">
       <c r="B52" s="10"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5">
       <c r="B53" s="10"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5">
       <c r="B54" s="10"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5">
       <c r="B55" s="10"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5">
       <c r="B56" s="10"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5">
       <c r="B57" s="10"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5">
       <c r="B58" s="10"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5">
       <c r="B59" s="10"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5">
       <c r="B60" s="10"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5">
       <c r="B61" s="10"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5">
       <c r="B62" s="10"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5">
       <c r="B63" s="10"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5">
       <c r="B64" s="10"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5">
       <c r="B65" s="10"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5">
       <c r="B66" s="10"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5">
       <c r="B67" s="10"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5">
       <c r="B68" s="10"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -1468,19 +1472,19 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:AC8"/>
+      <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="3.6640625" style="1"/>
-    <col min="27" max="27" width="12.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.44140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="26" width="3.7109375" style="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1554,7 +1558,7 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1591,7 +1595,7 @@
       </c>
       <c r="AC3" s="20"/>
     </row>
-    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1622,7 +1626,7 @@
       <c r="AB4" s="21"/>
       <c r="AC4" s="20"/>
     </row>
-    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="20" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1665,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
     </row>
-    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="20" customHeight="1">
       <c r="A6" s="14">
         <f>ROW()-5</f>
         <v>1</v>
@@ -1702,7 +1706,7 @@
       <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
     </row>
-    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="20" customHeight="1">
       <c r="A7" s="14">
         <f t="shared" ref="A7:A10" si="0">ROW()-5</f>
         <v>2</v>
@@ -1718,7 +1722,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1727,7 +1731,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -1742,14 +1746,14 @@
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
     </row>
-    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" ht="20" customHeight="1">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1758,7 +1762,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1767,7 +1771,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -1782,14 +1786,14 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="20" customHeight="1">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1798,7 +1802,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1807,7 +1811,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -1822,14 +1826,14 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
     </row>
-    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" ht="20" customHeight="1">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1838,7 +1842,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -1847,7 +1851,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -1862,7 +1866,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
     </row>
-    <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" ht="20" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1893,7 +1897,7 @@
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
     </row>
-    <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" ht="20" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="16"/>
@@ -1924,7 +1928,7 @@
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="20" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1955,7 +1959,7 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
     </row>
-    <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="20" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1986,7 +1990,7 @@
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
     </row>
-    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" ht="20" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2017,7 +2021,7 @@
       <c r="AB15" s="15"/>
       <c r="AC15" s="15"/>
     </row>
-    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" ht="20" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2048,7 +2052,7 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" ht="20" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2079,7 +2083,7 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" ht="20" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2110,7 +2114,7 @@
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
     </row>
-    <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2141,7 +2145,7 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
     </row>
-    <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2172,7 +2176,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2203,7 +2207,7 @@
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
     </row>
-    <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2234,7 +2238,7 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2265,7 +2269,7 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2296,7 +2300,7 @@
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
     </row>
-    <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2327,7 +2331,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2358,7 +2362,7 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2389,7 +2393,7 @@
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
     </row>
-    <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2420,7 +2424,7 @@
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
     </row>
-    <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2451,7 +2455,7 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2482,7 +2486,7 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
     </row>
-    <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="17"/>
       <c r="C31" s="14"/>
@@ -2637,7 +2641,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2649,22 +2653,22 @@
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="3.6640625" style="1"/>
-    <col min="23" max="23" width="5.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1"/>
-    <col min="25" max="25" width="8.44140625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="3.6640625" style="1"/>
-    <col min="31" max="31" width="16.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16374" width="3.6640625" style="1"/>
-    <col min="16376" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="22" width="3.7109375" style="1"/>
+    <col min="23" max="23" width="5.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1"/>
+    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16374" width="3.7109375" style="1"/>
+    <col min="16376" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2708,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2722,7 +2726,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -2744,7 +2748,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2784,7 +2788,7 @@
       </c>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -2820,92 +2824,92 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="56" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="20" customHeight="1">
       <c r="A6" s="14">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -2915,10 +2919,10 @@
       </c>
       <c r="R6" s="14"/>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
@@ -2931,32 +2935,32 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="20" customHeight="1">
       <c r="A7" s="14">
         <f t="shared" ref="A7:A13" si="0">ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -2967,7 +2971,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="2"/>
       <c r="T7" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -2980,32 +2984,32 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="20" customHeight="1">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -3016,7 +3020,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="2"/>
       <c r="T8" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
@@ -3029,32 +3033,32 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="20" customHeight="1">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -3065,7 +3069,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
@@ -3078,32 +3082,32 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -3114,7 +3118,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -3127,32 +3131,32 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -3163,7 +3167,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="2"/>
       <c r="T11" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
@@ -3176,32 +3180,32 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
@@ -3210,7 +3214,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="2"/>
       <c r="T12" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
@@ -3223,32 +3227,32 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -3257,7 +3261,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="2"/>
       <c r="T13" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -3270,11 +3274,11 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3308,7 +3312,7 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3342,7 +3346,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3376,7 +3380,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="20" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3410,7 +3414,7 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="20" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3444,7 +3448,7 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3478,7 +3482,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -3512,7 +3516,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -3546,7 +3550,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3580,7 +3584,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3614,7 +3618,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3648,7 +3652,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3682,7 +3686,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3716,7 +3720,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3750,7 +3754,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3784,7 +3788,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3818,7 +3822,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3852,7 +3856,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3886,7 +3890,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3920,7 +3924,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" ht="20" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4233,7 +4237,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4245,22 +4249,22 @@
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="3.6640625" style="1"/>
-    <col min="23" max="23" width="5.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1"/>
-    <col min="25" max="25" width="8.44140625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="3.6640625" style="1"/>
-    <col min="31" max="31" width="16.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16374" width="3.6640625" style="1"/>
-    <col min="16376" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="22" width="3.7109375" style="1"/>
+    <col min="23" max="23" width="5.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1"/>
+    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16374" width="3.7109375" style="1"/>
+    <col min="16376" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -4304,7 +4308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -4340,7 +4344,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -4380,7 +4384,7 @@
       </c>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -4394,7 +4398,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -4416,91 +4420,91 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="56" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="20" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -4508,16 +4512,16 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="26"/>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="6"/>
@@ -4526,31 +4530,31 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="20" customHeight="1">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -4561,7 +4565,7 @@
       <c r="R7" s="26"/>
       <c r="S7" s="2"/>
       <c r="T7" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -4574,31 +4578,31 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="15" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="20" customHeight="1">
       <c r="A8" s="14">
         <v>3</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4609,7 +4613,7 @@
       <c r="R8" s="26"/>
       <c r="S8" s="2"/>
       <c r="T8" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
@@ -4622,31 +4626,31 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="20" customHeight="1">
       <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -4655,7 +4659,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="2"/>
       <c r="T9" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
@@ -4668,31 +4672,31 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="A10" s="14">
         <v>5</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -4701,7 +4705,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="2"/>
       <c r="T10" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -4714,11 +4718,11 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF10" s="19"/>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4752,7 +4756,7 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4786,7 +4790,7 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4820,7 +4824,7 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -4854,7 +4858,7 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4888,7 +4892,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4922,7 +4926,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="20" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4956,7 +4960,7 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="20" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4990,7 +4994,7 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -5024,7 +5028,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -5058,7 +5062,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5092,7 +5096,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -5126,7 +5130,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5160,7 +5164,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -5194,7 +5198,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5228,7 +5232,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5262,7 +5266,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5296,7 +5300,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5330,7 +5334,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5364,7 +5368,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5398,7 +5402,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5432,7 +5436,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5466,7 +5470,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" ht="20" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5779,7 +5783,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5788,25 +5792,25 @@
   <dimension ref="A1:XEU33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:L4"/>
+      <selection activeCell="H14" sqref="H14:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="3.6640625" style="1"/>
-    <col min="23" max="23" width="5.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1"/>
-    <col min="25" max="25" width="8.44140625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="3.6640625" style="1"/>
-    <col min="31" max="31" width="16.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16374" width="3.6640625" style="1"/>
-    <col min="16376" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="22" width="3.7109375" style="1"/>
+    <col min="23" max="23" width="5.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1"/>
+    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16374" width="3.7109375" style="1"/>
+    <col min="16376" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5850,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -5864,7 +5868,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -5886,7 +5890,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -5926,7 +5930,7 @@
       </c>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -5940,7 +5944,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -5962,91 +5966,91 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="56" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="20" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -6054,16 +6058,16 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="26"/>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="26"/>
       <c r="V6" s="17"/>
       <c r="W6" s="26"/>
       <c r="X6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="6"/>
@@ -6072,31 +6076,31 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="20" customHeight="1">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -6107,7 +6111,7 @@
       <c r="R7" s="26"/>
       <c r="S7" s="2"/>
       <c r="T7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" s="26"/>
       <c r="V7" s="17"/>
@@ -6120,31 +6124,31 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="20" customHeight="1">
       <c r="A8" s="14">
         <v>3</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -6155,7 +6159,7 @@
       <c r="R8" s="26"/>
       <c r="S8" s="2"/>
       <c r="T8" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="26"/>
       <c r="V8" s="17"/>
@@ -6168,31 +6172,31 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="20" customHeight="1">
       <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -6203,7 +6207,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="2"/>
       <c r="T9" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="26"/>
       <c r="V9" s="17"/>
@@ -6216,31 +6220,31 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="A10" s="14">
         <v>5</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -6251,7 +6255,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="2"/>
       <c r="T10" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" s="26"/>
       <c r="V10" s="17"/>
@@ -6264,31 +6268,31 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="A11" s="14">
         <v>6</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
@@ -6299,7 +6303,7 @@
       <c r="R11" s="26"/>
       <c r="S11" s="2"/>
       <c r="T11" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U11" s="26"/>
       <c r="V11" s="17"/>
@@ -6312,31 +6316,31 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="A12" s="14">
         <v>7</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -6347,7 +6351,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="2"/>
       <c r="T12" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" s="26"/>
       <c r="V12" s="17"/>
@@ -6360,31 +6364,31 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="A13" s="14">
         <v>8</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
@@ -6406,31 +6410,31 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="A14" s="14">
         <v>9</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -6452,31 +6456,31 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="A15" s="14">
         <v>10</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
@@ -6498,31 +6502,31 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF15" s="19"/>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="A16" s="14">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -6533,7 +6537,7 @@
       <c r="R16" s="26"/>
       <c r="S16" s="2"/>
       <c r="T16" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U16" s="26"/>
       <c r="V16" s="17"/>
@@ -6546,31 +6550,31 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="20" customHeight="1">
       <c r="A17" s="14">
         <v>12</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
@@ -6579,7 +6583,7 @@
       <c r="R17" s="26"/>
       <c r="S17" s="2"/>
       <c r="T17" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U17" s="26"/>
       <c r="V17" s="17"/>
@@ -6592,31 +6596,31 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF17" s="15"/>
     </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="20" customHeight="1">
       <c r="A18" s="14">
         <v>13</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
@@ -6625,7 +6629,7 @@
       <c r="R18" s="26"/>
       <c r="S18" s="2"/>
       <c r="T18" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U18" s="26"/>
       <c r="V18" s="17"/>
@@ -6638,11 +6642,11 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF18" s="19"/>
     </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6676,7 +6680,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6710,7 +6714,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6744,7 +6748,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6778,7 +6782,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6812,7 +6816,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6846,7 +6850,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6880,7 +6884,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6914,7 +6918,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6948,7 +6952,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -6982,7 +6986,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7016,7 +7020,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7050,7 +7054,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7084,7 +7088,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7118,7 +7122,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" ht="20" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7431,7 +7435,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -7443,22 +7447,22 @@
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="3.6640625" style="1"/>
-    <col min="23" max="23" width="5.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1"/>
-    <col min="25" max="25" width="8.44140625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="3.6640625" style="1"/>
-    <col min="31" max="31" width="16.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16374" width="3.6640625" style="1"/>
-    <col min="16376" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="22" width="3.7109375" style="1"/>
+    <col min="23" max="23" width="5.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1"/>
+    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16374" width="3.7109375" style="1"/>
+    <col min="16376" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -7502,7 +7506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -7516,7 +7520,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -7538,7 +7542,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -7578,7 +7582,7 @@
       </c>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -7592,7 +7596,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -7614,91 +7618,91 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="56" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="20" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -7706,16 +7710,16 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="26"/>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="26"/>
       <c r="V6" s="17"/>
       <c r="W6" s="26"/>
       <c r="X6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="6"/>
@@ -7724,31 +7728,31 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="20" customHeight="1">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -7759,11 +7763,11 @@
       <c r="R7" s="26"/>
       <c r="S7" s="2"/>
       <c r="T7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" s="26"/>
       <c r="V7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" s="26"/>
       <c r="X7" s="17"/>
@@ -7774,31 +7778,31 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="20" customHeight="1">
       <c r="A8" s="14">
         <v>3</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -7809,7 +7813,7 @@
       <c r="R8" s="26"/>
       <c r="S8" s="2"/>
       <c r="T8" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="26"/>
       <c r="V8" s="17"/>
@@ -7822,31 +7826,31 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="20" customHeight="1">
       <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -7857,7 +7861,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="2"/>
       <c r="T9" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="26"/>
       <c r="V9" s="17"/>
@@ -7870,31 +7874,31 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="A10" s="14">
         <v>5</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -7905,7 +7909,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="2"/>
       <c r="T10" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" s="26"/>
       <c r="V10" s="17"/>
@@ -7918,31 +7922,31 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="A11" s="14">
         <v>6</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
@@ -7964,31 +7968,31 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="A12" s="14">
         <v>7</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -7999,7 +8003,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="2"/>
       <c r="T12" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" s="26"/>
       <c r="V12" s="17"/>
@@ -8012,31 +8016,31 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="A13" s="14">
         <v>8</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
@@ -8045,7 +8049,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="2"/>
       <c r="T13" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" s="26"/>
       <c r="V13" s="17"/>
@@ -8058,31 +8062,31 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="A14" s="14">
         <v>9</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -8091,7 +8095,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="2"/>
       <c r="T14" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U14" s="26"/>
       <c r="V14" s="17"/>
@@ -8104,11 +8108,11 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF14" s="19"/>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -8142,7 +8146,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -8176,7 +8180,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="20" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -8210,7 +8214,7 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="20" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -8244,7 +8248,7 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -8278,7 +8282,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -8312,7 +8316,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -8346,7 +8350,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -8380,7 +8384,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -8414,7 +8418,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -8448,7 +8452,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8482,7 +8486,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -8516,7 +8520,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -8550,7 +8554,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -8584,7 +8588,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -8618,7 +8622,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -8652,7 +8656,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -8686,7 +8690,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -8720,7 +8724,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" ht="20" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -9033,7 +9037,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -9042,25 +9046,25 @@
   <dimension ref="A1:XEU33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7:AF7"/>
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="3.6640625" style="1"/>
-    <col min="23" max="23" width="5.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1"/>
-    <col min="25" max="25" width="8.44140625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="3.6640625" style="1"/>
-    <col min="31" max="31" width="21.5546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="30.88671875" style="1" customWidth="1"/>
-    <col min="33" max="16374" width="3.6640625" style="1"/>
-    <col min="16376" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="22" width="3.7109375" style="1"/>
+    <col min="23" max="23" width="5.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1"/>
+    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="21.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="30.85546875" style="1" customWidth="1"/>
+    <col min="33" max="16374" width="3.7109375" style="1"/>
+    <col min="16376" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="20" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -9104,7 +9108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="20" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -9118,7 +9122,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -9140,7 +9144,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="20" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="20" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -9194,7 +9198,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -9216,91 +9220,91 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="56" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="20" customHeight="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -9308,16 +9312,16 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="26"/>
       <c r="S6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="26"/>
       <c r="V6" s="17"/>
       <c r="W6" s="26"/>
       <c r="X6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="6"/>
@@ -9326,31 +9330,31 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="20" customHeight="1">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -9359,11 +9363,11 @@
       <c r="R7" s="26"/>
       <c r="S7" s="2"/>
       <c r="T7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" s="26"/>
       <c r="V7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" s="26"/>
       <c r="X7" s="17"/>
@@ -9374,31 +9378,31 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="20" customHeight="1">
       <c r="A8" s="14">
         <v>3</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -9409,7 +9413,7 @@
       <c r="R8" s="26"/>
       <c r="S8" s="2"/>
       <c r="T8" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="32"/>
       <c r="V8" s="17"/>
@@ -9422,31 +9426,31 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="20" customHeight="1">
       <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -9455,11 +9459,11 @@
       <c r="R9" s="26"/>
       <c r="S9" s="2"/>
       <c r="T9" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="26"/>
       <c r="V9" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W9" s="26"/>
       <c r="X9" s="17"/>
@@ -9470,31 +9474,31 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="A10" s="14">
         <v>5</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -9516,31 +9520,31 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="A11" s="14">
         <v>6</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
@@ -9549,7 +9553,7 @@
       <c r="R11" s="26"/>
       <c r="S11" s="2"/>
       <c r="T11" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U11" s="26"/>
       <c r="V11" s="17"/>
@@ -9562,31 +9566,31 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="A12" s="14">
         <v>7</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -9597,7 +9601,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="2"/>
       <c r="T12" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" s="26"/>
       <c r="V12" s="17"/>
@@ -9610,31 +9614,31 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="A13" s="14">
         <v>8</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
@@ -9643,7 +9647,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="2"/>
       <c r="T13" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" s="26"/>
       <c r="V13" s="17"/>
@@ -9656,31 +9660,31 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="A14" s="14">
         <v>9</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -9689,7 +9693,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="2"/>
       <c r="T14" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U14" s="26"/>
       <c r="V14" s="17"/>
@@ -9702,11 +9706,11 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF14" s="19"/>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -9740,7 +9744,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -9774,7 +9778,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="20" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -9808,7 +9812,7 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="20" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -9842,7 +9846,7 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="20" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -9876,7 +9880,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="20" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -9910,7 +9914,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="20" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -9944,7 +9948,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="20" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -9978,7 +9982,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="20" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -10012,7 +10016,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="20" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -10046,7 +10050,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="20" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -10080,7 +10084,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="20" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -10114,7 +10118,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="20" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -10148,7 +10152,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="20" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -10182,7 +10186,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="20" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -10216,7 +10220,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="20" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -10250,7 +10254,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="20" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -10284,7 +10288,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -10318,7 +10322,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" ht="20" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -10631,6 +10635,6 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait"/>
 </worksheet>
 </file>